--- a/datasets/excel-datasets/dataset-car-deals.xlsx
+++ b/datasets/excel-datasets/dataset-car-deals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcastro/Faculdade/Mestrado/1-ano/semestre-1/TAAD/projeto-2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcastro/Faculdade/Mestrado/1-ano/semestre-1/TAAD/projeto-2021/car-deals-etl/datasets/excel-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358ECFA-E380-C047-A9A1-4E25C21B0582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595F398-CC13-3349-BCAE-A66FB4A2EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2634,12 +2634,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2982,17 +2985,21 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V80" sqref="V80"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
     <col min="21" max="21" width="22" customWidth="1"/>
     <col min="22" max="22" width="19.83203125" customWidth="1"/>
     <col min="23" max="23" width="26.83203125" customWidth="1"/>
@@ -5564,7 +5571,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -5634,7 +5641,7 @@
       <c r="W36" t="s">
         <v>705</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X36" s="3" t="s">
         <v>756</v>
       </c>
     </row>

--- a/datasets/excel-datasets/dataset-car-deals.xlsx
+++ b/datasets/excel-datasets/dataset-car-deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcastro/Faculdade/Mestrado/1-ano/semestre-1/TAAD/projeto-2021/car-deals-etl/datasets/excel-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595F398-CC13-3349-BCAE-A66FB4A2EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB174FD6-4AC9-8C46-99CA-9E72980A9335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2984,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2995,7 +2995,8 @@
     <col min="4" max="4" width="45.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="24.5" customWidth="1"/>
     <col min="16" max="16" width="17.83203125" customWidth="1"/>

--- a/datasets/excel-datasets/dataset-car-deals.xlsx
+++ b/datasets/excel-datasets/dataset-car-deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcastro/Faculdade/Mestrado/1-ano/semestre-1/TAAD/projeto-2021/car-deals-etl/datasets/excel-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6643028-4E4C-A041-A638-D3ED23F3C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07883F-55C7-9345-8291-18E5F9FD95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="702">
   <si>
     <t>source page</t>
   </si>
@@ -338,51 +338,6 @@
   </si>
   <si>
     <t>https://www.sobarroso.pt/carros/Opel/Astra/909001</t>
-  </si>
-  <si>
-    <t>12:47, 21 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>18:30, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>14:00, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>20:30, 20 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>18:27, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>18:29, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>15:30, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>13:11, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>14:37, 21 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>14:15, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>18:28, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>11:34, 22 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>11:16, 21 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>22:37, 21 Dezembro 2021</t>
-  </si>
-  <si>
-    <t>16:27, 22 Dezembro 2021</t>
   </si>
   <si>
     <t>Seat Tarraco 2.0 TDi Style | Só Barroso</t>
@@ -2479,6 +2434,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2542,12 +2500,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2890,11 +2852,12 @@
   <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2905,7 +2868,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2982,74 +2945,74 @@
       <c r="B2">
         <v>916603</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4">
+        <v>44531.008877314816</v>
+      </c>
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
       <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
         <v>193</v>
       </c>
-      <c r="F2" t="s">
-        <v>208</v>
-      </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L2">
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O2" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
       <c r="Q2" t="s">
+        <v>489</v>
+      </c>
+      <c r="R2" t="s">
+        <v>492</v>
+      </c>
+      <c r="S2" t="s">
+        <v>495</v>
+      </c>
+      <c r="T2" t="s">
+        <v>499</v>
+      </c>
+      <c r="U2" t="s">
+        <v>501</v>
+      </c>
+      <c r="V2" t="s">
+        <v>502</v>
+      </c>
+      <c r="W2" t="s">
         <v>504</v>
       </c>
-      <c r="R2" t="s">
-        <v>507</v>
-      </c>
-      <c r="S2" t="s">
-        <v>510</v>
-      </c>
-      <c r="T2" t="s">
-        <v>514</v>
-      </c>
-      <c r="U2" t="s">
-        <v>516</v>
-      </c>
-      <c r="V2" t="s">
-        <v>517</v>
-      </c>
-      <c r="W2" t="s">
-        <v>519</v>
-      </c>
       <c r="X2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="Y2" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -3059,74 +3022,74 @@
       <c r="B3">
         <v>859790</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4">
+        <v>44531.01284722222</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
       <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
         <v>194</v>
       </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="K3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N3" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O3" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P3">
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R3" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S3" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T3" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V3" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="X3" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="Y3" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -3136,74 +3099,74 @@
       <c r="B4">
         <v>946908</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4">
+        <v>44531.009722222225</v>
+      </c>
+      <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
         <v>195</v>
       </c>
-      <c r="F4" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R4" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U4" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V4" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W4" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="X4" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="Y4" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -3213,74 +3176,74 @@
       <c r="B5">
         <v>907193</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4">
+        <v>44531.014238425923</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" t="s">
         <v>196</v>
       </c>
-      <c r="F5" t="s">
-        <v>211</v>
-      </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J5" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N5" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O5" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P5">
         <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R5" t="s">
+        <v>492</v>
+      </c>
+      <c r="S5" t="s">
+        <v>495</v>
+      </c>
+      <c r="T5" t="s">
+        <v>499</v>
+      </c>
+      <c r="U5" t="s">
+        <v>501</v>
+      </c>
+      <c r="V5" t="s">
+        <v>502</v>
+      </c>
+      <c r="W5" t="s">
         <v>507</v>
       </c>
-      <c r="S5" t="s">
-        <v>510</v>
-      </c>
-      <c r="T5" t="s">
-        <v>514</v>
-      </c>
-      <c r="U5" t="s">
-        <v>516</v>
-      </c>
-      <c r="V5" t="s">
-        <v>517</v>
-      </c>
-      <c r="W5" t="s">
-        <v>522</v>
-      </c>
       <c r="X5" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="Y5" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -3290,74 +3253,74 @@
       <c r="B6">
         <v>945154</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4">
+        <v>44531.012815046299</v>
+      </c>
+      <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
       <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
         <v>197</v>
       </c>
-      <c r="F6" t="s">
-        <v>212</v>
-      </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I6" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J6" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="K6" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N6" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O6" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R6" t="s">
+        <v>493</v>
+      </c>
+      <c r="S6" t="s">
+        <v>497</v>
+      </c>
+      <c r="T6" t="s">
+        <v>499</v>
+      </c>
+      <c r="U6" t="s">
+        <v>501</v>
+      </c>
+      <c r="V6" t="s">
+        <v>502</v>
+      </c>
+      <c r="W6" t="s">
         <v>508</v>
       </c>
-      <c r="S6" t="s">
-        <v>512</v>
-      </c>
-      <c r="T6" t="s">
-        <v>514</v>
-      </c>
-      <c r="U6" t="s">
-        <v>516</v>
-      </c>
-      <c r="V6" t="s">
-        <v>517</v>
-      </c>
-      <c r="W6" t="s">
-        <v>523</v>
-      </c>
       <c r="X6" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="Y6" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -3367,74 +3330,74 @@
       <c r="B7">
         <v>918078</v>
       </c>
-      <c r="C7" t="s">
-        <v>107</v>
+      <c r="C7" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="N7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="O7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="P7">
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="X7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="Y7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -3444,74 +3407,74 @@
       <c r="B8">
         <v>945889</v>
       </c>
-      <c r="C8" t="s">
-        <v>107</v>
+      <c r="C8" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J8" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K8" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N8" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="O8" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="P8">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R8" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S8" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T8" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U8" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V8" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W8" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="X8" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="Y8" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -3521,71 +3484,71 @@
       <c r="B9">
         <v>945255</v>
       </c>
-      <c r="C9" t="s">
-        <v>107</v>
+      <c r="C9" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J9" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K9" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N9" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O9" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R9" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S9" t="s">
+        <v>496</v>
+      </c>
+      <c r="T9" t="s">
+        <v>499</v>
+      </c>
+      <c r="U9" t="s">
+        <v>501</v>
+      </c>
+      <c r="V9" t="s">
+        <v>502</v>
+      </c>
+      <c r="W9" t="s">
         <v>511</v>
       </c>
-      <c r="T9" t="s">
-        <v>514</v>
-      </c>
-      <c r="U9" t="s">
-        <v>516</v>
-      </c>
-      <c r="V9" t="s">
-        <v>517</v>
-      </c>
-      <c r="W9" t="s">
-        <v>526</v>
-      </c>
       <c r="Y9" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -3595,71 +3558,71 @@
       <c r="B10">
         <v>909324</v>
       </c>
-      <c r="C10" t="s">
-        <v>107</v>
+      <c r="C10" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J10" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="K10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L10">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N10" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O10" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="P10">
         <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R10" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T10" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U10" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W10" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="Y10" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -3669,74 +3632,74 @@
       <c r="B11">
         <v>946640</v>
       </c>
-      <c r="C11" t="s">
-        <v>107</v>
+      <c r="C11" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="J11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="K11" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O11" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P11">
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R11" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S11" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T11" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U11" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V11" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W11" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="X11" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="Y11" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -3746,71 +3709,71 @@
       <c r="B12">
         <v>946663</v>
       </c>
-      <c r="C12" t="s">
-        <v>107</v>
+      <c r="C12" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I12" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N12" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O12" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
       <c r="Q12" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R12" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S12" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T12" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U12" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V12" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W12" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="Y12" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -3820,74 +3783,74 @@
       <c r="B13">
         <v>946624</v>
       </c>
-      <c r="C13" t="s">
-        <v>107</v>
+      <c r="C13" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="J13" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K13" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N13" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O13" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P13">
         <v>5</v>
       </c>
       <c r="Q13" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R13" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S13" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T13" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U13" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V13" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W13" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="X13" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="Y13" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -3897,74 +3860,74 @@
       <c r="B14">
         <v>932559</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
+      <c r="C14" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N14" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O14" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P14">
         <v>5</v>
       </c>
       <c r="Q14" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R14" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S14" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T14" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U14" t="s">
+        <v>501</v>
+      </c>
+      <c r="V14" t="s">
+        <v>502</v>
+      </c>
+      <c r="W14" t="s">
         <v>516</v>
       </c>
-      <c r="V14" t="s">
-        <v>517</v>
-      </c>
-      <c r="W14" t="s">
-        <v>531</v>
-      </c>
       <c r="X14" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Y14" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -3974,71 +3937,71 @@
       <c r="B15">
         <v>931772</v>
       </c>
-      <c r="C15" t="s">
-        <v>107</v>
+      <c r="C15" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I15" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="J15" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="K15" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N15" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O15" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P15">
         <v>5</v>
       </c>
       <c r="Q15" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R15" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S15" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T15" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U15" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V15" t="s">
+        <v>502</v>
+      </c>
+      <c r="W15" t="s">
         <v>517</v>
       </c>
-      <c r="W15" t="s">
-        <v>532</v>
-      </c>
       <c r="Y15" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -4048,74 +4011,74 @@
       <c r="B16">
         <v>908979</v>
       </c>
-      <c r="C16" t="s">
-        <v>107</v>
+      <c r="C16" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="J16" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="K16" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N16" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O16" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="P16">
         <v>5</v>
       </c>
       <c r="Q16" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R16" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S16" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T16" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U16" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V16" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W16" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="X16" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="Y16" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -4125,71 +4088,71 @@
       <c r="B17">
         <v>942836</v>
       </c>
-      <c r="C17" t="s">
-        <v>107</v>
+      <c r="C17" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="H17" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I17" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J17" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K17" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="N17" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O17" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P17">
         <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R17" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S17" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T17" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U17" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V17" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W17" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="Y17" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -4199,74 +4162,74 @@
       <c r="B18">
         <v>910076</v>
       </c>
-      <c r="C18" t="s">
-        <v>107</v>
+      <c r="C18" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I18" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J18" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="K18" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N18" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O18" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="P18">
         <v>5</v>
       </c>
       <c r="Q18" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R18" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S18" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T18" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U18" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W18" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="X18" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="Y18" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -4276,74 +4239,74 @@
       <c r="B19">
         <v>942481</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
+      <c r="C19" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I19" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="J19" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K19" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N19" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O19" t="s">
+        <v>474</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
         <v>489</v>
       </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>504</v>
-      </c>
       <c r="R19" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S19" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T19" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U19" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V19" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W19" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="X19" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="Y19" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -4353,74 +4316,74 @@
       <c r="B20">
         <v>892823</v>
       </c>
-      <c r="C20" t="s">
-        <v>107</v>
+      <c r="C20" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I20" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="K20" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N20" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O20" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P20">
         <v>5</v>
       </c>
       <c r="Q20" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R20" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S20" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T20" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U20" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V20" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W20" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="X20" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="Y20" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -4430,74 +4393,74 @@
       <c r="B21">
         <v>929115</v>
       </c>
-      <c r="C21" t="s">
-        <v>107</v>
+      <c r="C21" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H21" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K21" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L21">
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N21" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O21" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="P21">
         <v>5</v>
       </c>
       <c r="Q21" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R21" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S21" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T21" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U21" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V21" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W21" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="X21" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="Y21" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -4507,74 +4470,74 @@
       <c r="B22">
         <v>940742</v>
       </c>
-      <c r="C22" t="s">
-        <v>107</v>
+      <c r="C22" s="4">
+        <v>44531.012849768522</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H22" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I22" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="J22" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="K22" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
         <v>454</v>
       </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>469</v>
-      </c>
       <c r="N22" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="O22" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P22">
         <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R22" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S22" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T22" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U22" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V22" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W22" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="X22" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="Y22" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -4584,71 +4547,71 @@
       <c r="B23">
         <v>944339</v>
       </c>
-      <c r="C23" t="s">
-        <v>111</v>
+      <c r="C23" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L23">
         <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N23" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O23" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P23">
         <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R23" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S23" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T23" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U23" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V23" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W23" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="Y23" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -4658,71 +4621,71 @@
       <c r="B24">
         <v>944483</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
+      <c r="C24" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H24" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="I24" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J24" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K24" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="L24">
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N24" t="s">
+        <v>461</v>
+      </c>
+      <c r="O24" t="s">
         <v>476</v>
       </c>
-      <c r="O24" t="s">
-        <v>491</v>
-      </c>
       <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R24" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S24" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T24" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U24" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V24" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W24" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="Y24" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -4732,74 +4695,74 @@
       <c r="B25">
         <v>918700</v>
       </c>
-      <c r="C25" t="s">
-        <v>111</v>
+      <c r="C25" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H25" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I25" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="J25" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="K25" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L25">
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N25" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O25" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R25" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S25" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T25" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U25" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V25" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W25" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="X25" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="Y25" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -4809,74 +4772,74 @@
       <c r="B26">
         <v>905744</v>
       </c>
-      <c r="C26" t="s">
-        <v>111</v>
+      <c r="C26" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I26" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J26" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K26" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L26">
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N26" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O26" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P26">
         <v>5</v>
       </c>
       <c r="Q26" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R26" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S26" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T26" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U26" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V26" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W26" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="X26" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="Y26" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -4886,74 +4849,74 @@
       <c r="B27">
         <v>890729</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
+      <c r="C27" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
         <v>197</v>
       </c>
-      <c r="F27" t="s">
-        <v>212</v>
-      </c>
       <c r="G27" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="I27" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J27" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K27" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N27" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O27" t="s">
+        <v>477</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>489</v>
+      </c>
+      <c r="R27" t="s">
         <v>492</v>
       </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>504</v>
-      </c>
-      <c r="R27" t="s">
-        <v>507</v>
-      </c>
       <c r="S27" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T27" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U27" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V27" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W27" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="X27" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="Y27" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -4963,74 +4926,74 @@
       <c r="B28">
         <v>906880</v>
       </c>
-      <c r="C28" t="s">
-        <v>111</v>
+      <c r="C28" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H28" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I28" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="J28" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="K28" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N28" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O28" t="s">
+        <v>478</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>489</v>
+      </c>
+      <c r="R28" t="s">
         <v>493</v>
       </c>
-      <c r="P28">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>504</v>
-      </c>
-      <c r="R28" t="s">
-        <v>508</v>
-      </c>
       <c r="S28" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T28" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U28" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V28" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W28" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="X28" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="Y28" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -5040,74 +5003,74 @@
       <c r="B29">
         <v>944488</v>
       </c>
-      <c r="C29" t="s">
-        <v>111</v>
+      <c r="C29" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I29" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="J29" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K29" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N29" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O29" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P29">
         <v>5</v>
       </c>
       <c r="Q29" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R29" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S29" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T29" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U29" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V29" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W29" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="X29" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="Y29" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -5117,71 +5080,71 @@
       <c r="B30">
         <v>926546</v>
       </c>
-      <c r="C30" t="s">
-        <v>111</v>
+      <c r="C30" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="s">
         <v>197</v>
       </c>
-      <c r="F30" t="s">
-        <v>212</v>
-      </c>
       <c r="G30" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H30" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I30" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J30" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K30" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L30">
         <v>5</v>
       </c>
       <c r="M30" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N30" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O30" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="P30">
         <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R30" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S30" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T30" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U30" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V30" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W30" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="Y30" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -5191,74 +5154,74 @@
       <c r="B31">
         <v>892647</v>
       </c>
-      <c r="C31" t="s">
-        <v>111</v>
+      <c r="C31" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H31" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I31" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="J31" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K31" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L31">
         <v>5</v>
       </c>
       <c r="M31" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N31" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O31" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="P31">
         <v>5</v>
       </c>
       <c r="Q31" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R31" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S31" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T31" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U31" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V31" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W31" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="X31" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="Y31" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -5268,74 +5231,74 @@
       <c r="B32">
         <v>893451</v>
       </c>
-      <c r="C32" t="s">
-        <v>111</v>
+      <c r="C32" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H32" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I32" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="J32" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="K32" t="s">
+        <v>441</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
         <v>456</v>
       </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32" t="s">
-        <v>471</v>
-      </c>
       <c r="N32" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O32" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="P32">
         <v>5</v>
       </c>
       <c r="Q32" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R32" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S32" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T32" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U32" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V32" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W32" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="X32" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="Y32" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -5345,74 +5308,74 @@
       <c r="B33">
         <v>892829</v>
       </c>
-      <c r="C33" t="s">
-        <v>111</v>
+      <c r="C33" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I33" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J33" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="K33" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L33">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N33" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O33" t="s">
+        <v>477</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>489</v>
+      </c>
+      <c r="R33" t="s">
         <v>492</v>
       </c>
-      <c r="P33">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>504</v>
-      </c>
-      <c r="R33" t="s">
-        <v>507</v>
-      </c>
       <c r="S33" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T33" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U33" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V33" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W33" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="X33" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="Y33" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -5422,74 +5385,74 @@
       <c r="B34">
         <v>893468</v>
       </c>
-      <c r="C34" t="s">
-        <v>111</v>
+      <c r="C34" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H34" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I34" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="J34" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="K34" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L34">
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="N34" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O34" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="P34">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R34" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S34" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="T34" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U34" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V34" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W34" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="X34" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="Y34" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -5499,74 +5462,74 @@
       <c r="B35">
         <v>896299</v>
       </c>
-      <c r="C35" t="s">
-        <v>111</v>
+      <c r="C35" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I35" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="J35" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K35" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L35">
         <v>5</v>
       </c>
       <c r="M35" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N35" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O35" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="P35">
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R35" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S35" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U35" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V35" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W35" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="X35" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="Y35" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -5576,74 +5539,74 @@
       <c r="B36">
         <v>896390</v>
       </c>
-      <c r="C36" t="s">
-        <v>111</v>
+      <c r="C36" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G36" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H36" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="I36" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="J36" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="K36" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="L36">
         <v>5</v>
       </c>
       <c r="M36" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N36" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="O36" t="s">
+        <v>482</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>489</v>
+      </c>
+      <c r="R36" t="s">
+        <v>493</v>
+      </c>
+      <c r="S36" t="s">
         <v>497</v>
       </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>504</v>
-      </c>
-      <c r="R36" t="s">
-        <v>508</v>
-      </c>
-      <c r="S36" t="s">
-        <v>512</v>
-      </c>
       <c r="T36" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U36" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V36" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W36" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="X36" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="Y36" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -5653,74 +5616,74 @@
       <c r="B37">
         <v>898030</v>
       </c>
-      <c r="C37" t="s">
-        <v>111</v>
+      <c r="C37" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="H37" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I37" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="J37" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K37" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L37">
         <v>5</v>
       </c>
       <c r="M37" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N37" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O37" t="s">
+        <v>474</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s">
         <v>489</v>
       </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>504</v>
-      </c>
       <c r="R37" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S37" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T37" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U37" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V37" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W37" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="X37" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="Y37" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
@@ -5730,74 +5693,74 @@
       <c r="B38">
         <v>899719</v>
       </c>
-      <c r="C38" t="s">
-        <v>112</v>
+      <c r="C38" s="4">
+        <v>44531.010766435182</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G38" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H38" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I38" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="J38" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K38" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="L38">
         <v>5</v>
       </c>
       <c r="M38" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N38" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O38" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P38">
         <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R38" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S38" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T38" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U38" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V38" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W38" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="X38" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="Y38" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -5807,74 +5770,74 @@
       <c r="B39">
         <v>903362</v>
       </c>
-      <c r="C39" t="s">
-        <v>113</v>
+      <c r="C39" s="4">
+        <v>44531.009157638888</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I39" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="J39" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K39" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N39" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O39" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R39" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S39" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T39" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U39" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V39" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W39" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="X39" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="Y39" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -5884,74 +5847,74 @@
       <c r="B40">
         <v>898283</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
+      <c r="C40" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H40" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="I40" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J40" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="K40" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
       <c r="M40" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N40" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O40" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P40">
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R40" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S40" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="T40" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U40" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V40" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W40" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="X40" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="Y40" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -5961,74 +5924,74 @@
       <c r="B41">
         <v>903520</v>
       </c>
-      <c r="C41" t="s">
-        <v>114</v>
+      <c r="C41" s="4">
+        <v>44531.010152893519</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G41" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I41" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="J41" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
+        <v>441</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41" t="s">
         <v>456</v>
       </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41" t="s">
-        <v>471</v>
-      </c>
       <c r="N41" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O41" t="s">
+        <v>480</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>489</v>
+      </c>
+      <c r="R41" t="s">
+        <v>494</v>
+      </c>
+      <c r="S41" t="s">
         <v>495</v>
       </c>
-      <c r="P41">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>504</v>
-      </c>
-      <c r="R41" t="s">
-        <v>509</v>
-      </c>
-      <c r="S41" t="s">
-        <v>510</v>
-      </c>
       <c r="T41" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U41" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V41" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W41" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="X41" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="Y41" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -6038,74 +6001,74 @@
       <c r="B42">
         <v>900447</v>
       </c>
-      <c r="C42" t="s">
-        <v>115</v>
+      <c r="C42" s="4">
+        <v>44531.009898379627</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="H42" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="I42" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J42" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N42" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O42" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="P42">
         <v>3</v>
       </c>
       <c r="Q42" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R42" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S42" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T42" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U42" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V42" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W42" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="X42" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="Y42" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -6115,74 +6078,74 @@
       <c r="B43">
         <v>903880</v>
       </c>
-      <c r="C43" t="s">
-        <v>111</v>
+      <c r="C43" s="4">
+        <v>44531.012838194445</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H43" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="I43" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J43" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L43">
         <v>4</v>
       </c>
       <c r="M43" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N43" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O43" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="P43">
         <v>3</v>
       </c>
       <c r="Q43" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R43" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S43" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="T43" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U43" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V43" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W43" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="X43" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="Y43" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -6192,74 +6155,74 @@
       <c r="B44">
         <v>905041</v>
       </c>
-      <c r="C44" t="s">
-        <v>116</v>
+      <c r="C44" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G44" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="H44" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="I44" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="J44" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L44">
         <v>5</v>
       </c>
       <c r="M44" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N44" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O44" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P44">
         <v>5</v>
       </c>
       <c r="Q44" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R44" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S44" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T44" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U44" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V44" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W44" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="X44" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Y44" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -6269,74 +6232,74 @@
       <c r="B45">
         <v>904681</v>
       </c>
-      <c r="C45" t="s">
-        <v>116</v>
+      <c r="C45" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I45" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J45" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K45" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L45">
         <v>5</v>
       </c>
       <c r="M45" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N45" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O45" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P45">
         <v>5</v>
       </c>
       <c r="Q45" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R45" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S45" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T45" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U45" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V45" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W45" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="X45" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="Y45" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -6346,74 +6309,74 @@
       <c r="B46">
         <v>905055</v>
       </c>
-      <c r="C46" t="s">
-        <v>116</v>
+      <c r="C46" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="H46" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I46" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="J46" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="L46">
         <v>5</v>
       </c>
       <c r="M46" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N46" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O46" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P46">
         <v>5</v>
       </c>
       <c r="Q46" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R46" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S46" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T46" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U46" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V46" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W46" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="X46" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="Y46" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -6423,74 +6386,74 @@
       <c r="B47">
         <v>905653</v>
       </c>
-      <c r="C47" t="s">
-        <v>116</v>
+      <c r="C47" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="H47" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I47" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J47" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L47">
         <v>5</v>
       </c>
       <c r="M47" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N47" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O47" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P47">
         <v>5</v>
       </c>
       <c r="Q47" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R47" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S47" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T47" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U47" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V47" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W47" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="X47" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="Y47" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -6500,74 +6463,74 @@
       <c r="B48">
         <v>905629</v>
       </c>
-      <c r="C48" t="s">
-        <v>116</v>
+      <c r="C48" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H48" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I48" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="J48" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L48">
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N48" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O48" t="s">
+        <v>474</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s">
         <v>489</v>
       </c>
-      <c r="P48">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>504</v>
-      </c>
       <c r="R48" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S48" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T48" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U48" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V48" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W48" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="X48" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="Y48" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -6577,74 +6540,74 @@
       <c r="B49">
         <v>905654</v>
       </c>
-      <c r="C49" t="s">
-        <v>116</v>
+      <c r="C49" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H49" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" t="s">
+        <v>687</v>
+      </c>
+      <c r="J49" t="s">
         <v>368</v>
       </c>
-      <c r="I49" t="s">
-        <v>702</v>
-      </c>
-      <c r="J49" t="s">
-        <v>383</v>
-      </c>
       <c r="K49" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="L49">
         <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N49" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O49" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="P49">
         <v>5</v>
       </c>
       <c r="Q49" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R49" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S49" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T49" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U49" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V49" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W49" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="X49" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="Y49" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -6654,74 +6617,74 @@
       <c r="B50">
         <v>906915</v>
       </c>
-      <c r="C50" t="s">
-        <v>116</v>
+      <c r="C50" s="4">
+        <v>44531.012824074074</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H50" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I50" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L50">
         <v>5</v>
       </c>
       <c r="M50" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O50" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P50">
         <v>5</v>
       </c>
       <c r="Q50" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R50" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S50" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T50" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U50" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V50" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W50" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="X50" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="Y50" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -6731,74 +6694,74 @@
       <c r="B51">
         <v>906934</v>
       </c>
-      <c r="C51" t="s">
-        <v>116</v>
+      <c r="C51" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G51" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H51" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I51" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="K51" t="s">
+        <v>441</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
         <v>456</v>
       </c>
-      <c r="L51">
-        <v>5</v>
-      </c>
-      <c r="M51" t="s">
-        <v>471</v>
-      </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="P51">
         <v>3</v>
       </c>
       <c r="Q51" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R51" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S51" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T51" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U51" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V51" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W51" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="X51" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="Y51" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -6808,74 +6771,74 @@
       <c r="B52">
         <v>907088</v>
       </c>
-      <c r="C52" t="s">
-        <v>116</v>
+      <c r="C52" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H52" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="I52" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
       <c r="M52" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N52" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P52">
         <v>5</v>
       </c>
       <c r="Q52" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R52" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S52" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T52" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U52" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V52" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W52" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="X52" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="Y52" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -6885,74 +6848,74 @@
       <c r="B53">
         <v>907174</v>
       </c>
-      <c r="C53" t="s">
-        <v>116</v>
+      <c r="C53" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I53" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L53">
         <v>5</v>
       </c>
       <c r="M53" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N53" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P53">
         <v>5</v>
       </c>
       <c r="Q53" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R53" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S53" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T53" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U53" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V53" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W53" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="X53" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="Y53" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -6962,74 +6925,74 @@
       <c r="B54">
         <v>907181</v>
       </c>
-      <c r="C54" t="s">
-        <v>116</v>
+      <c r="C54" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H54" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="I54" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L54">
         <v>5</v>
       </c>
       <c r="M54" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P54">
         <v>5</v>
       </c>
       <c r="Q54" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R54" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S54" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T54" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U54" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V54" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W54" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="X54" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="Y54" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -7039,74 +7002,74 @@
       <c r="B55">
         <v>907082</v>
       </c>
-      <c r="C55" t="s">
-        <v>116</v>
+      <c r="C55" s="4">
+        <v>44531.012826620368</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="I55" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="K55" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L55">
         <v>5</v>
       </c>
       <c r="M55" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O55" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="P55">
         <v>5</v>
       </c>
       <c r="Q55" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R55" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S55" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T55" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U55" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V55" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W55" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="X55" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="Y55" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -7116,74 +7079,74 @@
       <c r="B56">
         <v>907358</v>
       </c>
-      <c r="C56" t="s">
-        <v>117</v>
+      <c r="C56" s="4">
+        <v>44531.008034953702</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H56" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I56" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L56">
         <v>5</v>
       </c>
       <c r="M56" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O56" t="s">
+        <v>477</v>
+      </c>
+      <c r="P56">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>489</v>
+      </c>
+      <c r="R56" t="s">
         <v>492</v>
       </c>
-      <c r="P56">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>504</v>
-      </c>
-      <c r="R56" t="s">
-        <v>507</v>
-      </c>
       <c r="S56" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T56" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U56" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V56" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W56" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="X56" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="Y56" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
@@ -7193,74 +7156,74 @@
       <c r="B57">
         <v>907495</v>
       </c>
-      <c r="C57" t="s">
-        <v>110</v>
+      <c r="C57" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I57" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L57">
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O57" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P57">
         <v>5</v>
       </c>
       <c r="Q57" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R57" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S57" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T57" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U57" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V57" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W57" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="X57" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="Y57" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -7270,71 +7233,71 @@
       <c r="B58">
         <v>944793</v>
       </c>
-      <c r="C58" t="s">
-        <v>110</v>
+      <c r="C58" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F58" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="I58" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="J58" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
         <v>456</v>
       </c>
-      <c r="L58">
-        <v>5</v>
-      </c>
-      <c r="M58" t="s">
-        <v>471</v>
-      </c>
       <c r="N58" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="P58">
         <v>5</v>
       </c>
       <c r="Q58" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R58" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S58" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T58" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U58" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V58" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W58" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="Y58" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -7344,74 +7307,74 @@
       <c r="B59">
         <v>925885</v>
       </c>
-      <c r="C59" t="s">
-        <v>110</v>
+      <c r="C59" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H59" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I59" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J59" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="K59" t="s">
+        <v>441</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
         <v>456</v>
       </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
-      <c r="M59" t="s">
-        <v>471</v>
-      </c>
       <c r="N59" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O59" t="s">
+        <v>480</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>489</v>
+      </c>
+      <c r="R59" t="s">
+        <v>494</v>
+      </c>
+      <c r="S59" t="s">
         <v>495</v>
       </c>
-      <c r="P59">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>504</v>
-      </c>
-      <c r="R59" t="s">
-        <v>509</v>
-      </c>
-      <c r="S59" t="s">
-        <v>510</v>
-      </c>
       <c r="T59" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U59" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V59" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W59" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="X59" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="Y59" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
@@ -7421,74 +7384,74 @@
       <c r="B60">
         <v>887762</v>
       </c>
-      <c r="C60" t="s">
-        <v>118</v>
+      <c r="C60" s="4">
+        <v>44531.007826504632</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H60" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I60" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="J60" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="L60">
         <v>5</v>
       </c>
       <c r="M60" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="P60">
         <v>5</v>
       </c>
       <c r="Q60" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R60" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S60" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T60" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U60" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V60" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W60" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="X60" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="Y60" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
@@ -7498,71 +7461,71 @@
       <c r="B61">
         <v>944427</v>
       </c>
-      <c r="C61" t="s">
-        <v>119</v>
+      <c r="C61" s="4">
+        <v>44531.015708449071</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H61" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="I61" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J61" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K61" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="L61">
         <v>5</v>
       </c>
       <c r="M61" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N61" t="s">
+        <v>461</v>
+      </c>
+      <c r="O61" t="s">
         <v>476</v>
       </c>
-      <c r="O61" t="s">
-        <v>491</v>
-      </c>
       <c r="P61">
         <v>5</v>
       </c>
       <c r="Q61" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R61" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S61" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T61" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U61" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V61" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W61" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="Y61" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
@@ -7572,74 +7535,74 @@
       <c r="B62">
         <v>875168</v>
       </c>
-      <c r="C62" t="s">
-        <v>120</v>
+      <c r="C62" s="4">
+        <v>44531.011426157405</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G62" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I62" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J62" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K62" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L62">
         <v>5</v>
       </c>
       <c r="M62" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N62" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="P62">
         <v>5</v>
       </c>
       <c r="Q62" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R62" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S62" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T62" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U62" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V62" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W62" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="X62" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="Y62" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -7649,74 +7612,74 @@
       <c r="B63">
         <v>890869</v>
       </c>
-      <c r="C63" t="s">
-        <v>110</v>
+      <c r="C63" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G63" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H63" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I63" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="J63" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L63">
         <v>5</v>
       </c>
       <c r="M63" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N63" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O63" t="s">
+        <v>474</v>
+      </c>
+      <c r="P63">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s">
         <v>489</v>
       </c>
-      <c r="P63">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>504</v>
-      </c>
       <c r="R63" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S63" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T63" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U63" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V63" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W63" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="X63" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="Y63" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -7726,74 +7689,74 @@
       <c r="B64">
         <v>935664</v>
       </c>
-      <c r="C64" t="s">
-        <v>110</v>
+      <c r="C64" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I64" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="J64" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="K64" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L64">
         <v>5</v>
       </c>
       <c r="M64" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N64" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P64">
         <v>5</v>
       </c>
       <c r="Q64" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R64" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S64" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T64" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U64" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V64" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W64" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="X64" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="Y64" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -7803,71 +7766,71 @@
       <c r="B65">
         <v>935564</v>
       </c>
-      <c r="C65" t="s">
-        <v>110</v>
+      <c r="C65" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I65" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="J65" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="K65" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L65">
         <v>5</v>
       </c>
       <c r="M65" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N65" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O65" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="P65">
         <v>5</v>
       </c>
       <c r="Q65" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R65" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S65" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T65" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U65" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V65" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W65" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="Y65" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -7877,74 +7840,74 @@
       <c r="B66">
         <v>912403</v>
       </c>
-      <c r="C66" t="s">
-        <v>110</v>
+      <c r="C66" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
         <v>180</v>
       </c>
-      <c r="E66" t="s">
-        <v>195</v>
-      </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I66" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="J66" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="O66" t="s">
+        <v>486</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>489</v>
+      </c>
+      <c r="R66" t="s">
+        <v>493</v>
+      </c>
+      <c r="S66" t="s">
+        <v>498</v>
+      </c>
+      <c r="T66" t="s">
+        <v>499</v>
+      </c>
+      <c r="U66" t="s">
         <v>501</v>
       </c>
-      <c r="P66">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>504</v>
-      </c>
-      <c r="R66" t="s">
-        <v>508</v>
-      </c>
-      <c r="S66" t="s">
-        <v>513</v>
-      </c>
-      <c r="T66" t="s">
-        <v>514</v>
-      </c>
-      <c r="U66" t="s">
-        <v>516</v>
-      </c>
       <c r="V66" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W66" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="X66" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="Y66" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -7954,74 +7917,74 @@
       <c r="B67">
         <v>941792</v>
       </c>
-      <c r="C67" t="s">
-        <v>110</v>
+      <c r="C67" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I67" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="J67" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K67" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="L67">
         <v>5</v>
       </c>
       <c r="M67" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="N67" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O67" t="s">
+        <v>487</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>489</v>
+      </c>
+      <c r="R67" t="s">
+        <v>492</v>
+      </c>
+      <c r="S67" t="s">
+        <v>497</v>
+      </c>
+      <c r="T67" t="s">
+        <v>499</v>
+      </c>
+      <c r="U67" t="s">
+        <v>501</v>
+      </c>
+      <c r="V67" t="s">
         <v>502</v>
       </c>
-      <c r="P67">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>504</v>
-      </c>
-      <c r="R67" t="s">
-        <v>507</v>
-      </c>
-      <c r="S67" t="s">
-        <v>512</v>
-      </c>
-      <c r="T67" t="s">
-        <v>514</v>
-      </c>
-      <c r="U67" t="s">
-        <v>516</v>
-      </c>
-      <c r="V67" t="s">
-        <v>517</v>
-      </c>
       <c r="W67" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="X67" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="Y67" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -8031,74 +7994,74 @@
       <c r="B68">
         <v>942504</v>
       </c>
-      <c r="C68" t="s">
-        <v>110</v>
+      <c r="C68" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H68" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I68" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J68" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K68" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L68">
         <v>5</v>
       </c>
       <c r="M68" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N68" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O68" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P68">
         <v>5</v>
       </c>
       <c r="Q68" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R68" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S68" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T68" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U68" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V68" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W68" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="X68" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="Y68" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
@@ -8108,71 +8071,71 @@
       <c r="B69">
         <v>943437</v>
       </c>
-      <c r="C69" t="s">
-        <v>110</v>
+      <c r="C69" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G69" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I69" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="J69" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="K69" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L69">
         <v>5</v>
       </c>
       <c r="M69" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O69" t="s">
+        <v>477</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>490</v>
+      </c>
+      <c r="R69" t="s">
         <v>492</v>
       </c>
-      <c r="P69">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>505</v>
-      </c>
-      <c r="R69" t="s">
-        <v>507</v>
-      </c>
       <c r="S69" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T69" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U69" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V69" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W69" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="Y69" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
@@ -8182,71 +8145,71 @@
       <c r="B70">
         <v>943876</v>
       </c>
-      <c r="C70" t="s">
-        <v>110</v>
+      <c r="C70" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G70" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H70" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I70" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="J70" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="K70" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L70">
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N70" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O70" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="P70">
         <v>3</v>
       </c>
       <c r="Q70" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R70" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S70" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="T70" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U70" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V70" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W70" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="Y70" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -8256,74 +8219,74 @@
       <c r="B71">
         <v>942426</v>
       </c>
-      <c r="C71" t="s">
-        <v>110</v>
+      <c r="C71" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G71" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I71" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="J71" t="s">
+        <v>419</v>
+      </c>
+      <c r="K71" t="s">
         <v>434</v>
       </c>
-      <c r="K71" t="s">
-        <v>449</v>
-      </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N71" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O71" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="P71">
         <v>5</v>
       </c>
       <c r="Q71" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R71" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S71" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T71" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U71" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V71" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W71" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="X71" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="Y71" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
@@ -8333,74 +8296,74 @@
       <c r="B72">
         <v>914712</v>
       </c>
-      <c r="C72" t="s">
-        <v>110</v>
+      <c r="C72" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H72" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="I72" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K72" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N72" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O72" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P72">
         <v>5</v>
       </c>
       <c r="Q72" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R72" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S72" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T72" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U72" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V72" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W72" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="X72" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="Y72" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
@@ -8410,71 +8373,71 @@
       <c r="B73">
         <v>943381</v>
       </c>
-      <c r="C73" t="s">
-        <v>110</v>
+      <c r="C73" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H73" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I73" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="J73" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="K73" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="L73">
         <v>5</v>
       </c>
       <c r="M73" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N73" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O73" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="P73">
         <v>5</v>
       </c>
       <c r="Q73" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R73" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S73" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T73" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U73" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V73" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W73" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="Y73" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
@@ -8484,74 +8447,74 @@
       <c r="B74">
         <v>884362</v>
       </c>
-      <c r="C74" t="s">
-        <v>110</v>
+      <c r="C74" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G74" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I74" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J74" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K74" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L74">
         <v>5</v>
       </c>
       <c r="M74" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O74" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="P74">
         <v>5</v>
       </c>
       <c r="Q74" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R74" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S74" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T74" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U74" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V74" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W74" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="X74" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="Y74" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
@@ -8561,74 +8524,74 @@
       <c r="B75">
         <v>840070</v>
       </c>
-      <c r="C75" t="s">
-        <v>110</v>
+      <c r="C75" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G75" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H75" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I75" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J75" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="K75" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L75">
         <v>5</v>
       </c>
       <c r="M75" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N75" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O75" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P75">
         <v>5</v>
       </c>
       <c r="Q75" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R75" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S75" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T75" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U75" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V75" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W75" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="X75" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y75" t="s">
         <v>658</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -8638,74 +8601,74 @@
       <c r="B76">
         <v>870661</v>
       </c>
-      <c r="C76" t="s">
-        <v>110</v>
+      <c r="C76" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G76" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H76" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="I76" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="J76" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="K76" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N76" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O76" t="s">
+        <v>474</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s">
         <v>489</v>
       </c>
-      <c r="P76">
-        <v>5</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>504</v>
-      </c>
       <c r="R76" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S76" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="T76" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U76" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V76" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W76" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="X76" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="Y76" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
@@ -8715,74 +8678,74 @@
       <c r="B77">
         <v>870678</v>
       </c>
-      <c r="C77" t="s">
-        <v>110</v>
+      <c r="C77" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G77" t="s">
+        <v>311</v>
+      </c>
+      <c r="H77" t="s">
         <v>326</v>
       </c>
-      <c r="H77" t="s">
-        <v>341</v>
-      </c>
       <c r="I77" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="J77" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N77" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P77">
         <v>5</v>
       </c>
       <c r="Q77" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="R77" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S77" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T77" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U77" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V77" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="W77" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="X77" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="Y77" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -8792,74 +8755,74 @@
       <c r="B78">
         <v>889840</v>
       </c>
-      <c r="C78" t="s">
-        <v>110</v>
+      <c r="C78" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H78" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I78" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J78" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K78" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N78" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O78" t="s">
+        <v>477</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>489</v>
+      </c>
+      <c r="R78" t="s">
         <v>492</v>
       </c>
-      <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>504</v>
-      </c>
-      <c r="R78" t="s">
-        <v>507</v>
-      </c>
       <c r="S78" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T78" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U78" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V78" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W78" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="X78" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="Y78" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -8869,74 +8832,74 @@
       <c r="B79">
         <v>896995</v>
       </c>
-      <c r="C79" t="s">
-        <v>110</v>
+      <c r="C79" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H79" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I79" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="J79" t="s">
+        <v>422</v>
+      </c>
+      <c r="K79" t="s">
         <v>437</v>
       </c>
-      <c r="K79" t="s">
-        <v>452</v>
-      </c>
       <c r="L79">
         <v>5</v>
       </c>
       <c r="M79" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="N79" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O79" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="P79">
         <v>5</v>
       </c>
       <c r="Q79" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R79" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S79" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="T79" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="U79" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V79" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W79" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="X79" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="Y79" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -8946,68 +8909,68 @@
       <c r="B80">
         <v>900743</v>
       </c>
-      <c r="C80" t="s">
-        <v>110</v>
+      <c r="C80" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H80" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I80" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="J80" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K80" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L80">
         <v>5</v>
       </c>
       <c r="M80" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N80" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O80" t="s">
+        <v>488</v>
+      </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>491</v>
+      </c>
+      <c r="R80" t="s">
+        <v>492</v>
+      </c>
+      <c r="S80" t="s">
+        <v>495</v>
+      </c>
+      <c r="T80" t="s">
+        <v>500</v>
+      </c>
+      <c r="U80" t="s">
+        <v>501</v>
+      </c>
+      <c r="V80" t="s">
         <v>503</v>
       </c>
-      <c r="P80">
-        <v>5</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>506</v>
-      </c>
-      <c r="R80" t="s">
-        <v>507</v>
-      </c>
-      <c r="S80" t="s">
-        <v>510</v>
-      </c>
-      <c r="T80" t="s">
-        <v>515</v>
-      </c>
-      <c r="U80" t="s">
-        <v>516</v>
-      </c>
-      <c r="V80" t="s">
-        <v>518</v>
-      </c>
       <c r="Y80" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
@@ -9017,71 +8980,71 @@
       <c r="B81">
         <v>909041</v>
       </c>
-      <c r="C81" t="s">
-        <v>110</v>
+      <c r="C81" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H81" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I81" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="J81" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="K81" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L81">
         <v>5</v>
       </c>
       <c r="M81" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N81" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O81" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P81">
         <v>5</v>
       </c>
       <c r="Q81" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="R81" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="S81" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="T81" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U81" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V81" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W81" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="Y81" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
@@ -9091,74 +9054,74 @@
       <c r="B82">
         <v>909001</v>
       </c>
-      <c r="C82" t="s">
-        <v>110</v>
+      <c r="C82" s="4">
+        <v>44531.012815046299</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G82" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H82" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I82" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="J82" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="K82" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L82">
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="N82" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O82" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="P82">
         <v>5</v>
       </c>
       <c r="Q82" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="R82" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="S82" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="T82" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U82" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="V82" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="W82" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="X82" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="Y82" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
